--- a/02_詳細設計書/01_詳細設計書/チーム2/勤怠情報管理テーブル定義書.xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム2/勤怠情報管理テーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7DEE0-B944-A649-8EFE-6CE2597082BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52174C8D-F53B-A743-853C-D6D4561E03BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="1400" windowWidth="31160" windowHeight="17300" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="1320" windowWidth="31160" windowHeight="17300" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="111">
   <si>
     <t>システム名</t>
   </si>
@@ -448,9 +448,6 @@
     <t>absence_hours</t>
   </si>
   <si>
-    <t>dept_name</t>
-  </si>
-  <si>
     <t>m_dept</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
   <si>
     <t>master</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>calendar_date</t>
   </si>
   <si>
     <t>weekday</t>
@@ -527,63 +521,76 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>display_flg</t>
+  </si>
+  <si>
+    <t>t_employee</t>
+  </si>
+  <si>
+    <t>t_attendance</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>employee_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>record_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>employee_id+attendace_date+順番</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>create_user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emplyee_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update_user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新者id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dept_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>calendar_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>attendance_ym</t>
-  </si>
-  <si>
-    <t>display_flg</t>
-  </si>
-  <si>
-    <t>t_employee</t>
-  </si>
-  <si>
-    <t>t_attendance</t>
-  </si>
-  <si>
-    <t>employee_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>employee_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>record_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>記録番号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>employee_id+attendace_date+順番</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>create_user_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>emplyee_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>update_user_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成者id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>更新者id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rec_del_flg</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1595,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F086F-26AC-4114-B742-94502A035963}">
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1626,13 +1633,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1640,13 +1647,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1654,13 +1661,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1668,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1682,13 +1689,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1696,13 +1703,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="49" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1735,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1871,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="12">
         <v>5</v>
@@ -1897,10 +1904,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="15">
         <v>100</v>
@@ -1924,7 +1931,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="15">
         <v>8</v>
@@ -1936,7 +1943,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -1948,7 +1955,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="15">
         <v>10</v>
@@ -1970,7 +1977,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -2011,10 +2018,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15">
         <v>5</v>
@@ -2024,10 +2031,10 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
@@ -2055,10 +2062,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="15">
         <v>5</v>
@@ -2068,10 +2075,10 @@
       <c r="G15" s="17"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -2082,7 +2089,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="15">
         <v>50</v>
@@ -2172,7 +2179,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2307,10 +2314,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="15">
         <v>15</v>
@@ -2324,10 +2331,10 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
@@ -2338,7 +2345,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="15">
         <v>10</v>
@@ -2362,7 +2369,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="15">
         <v>5</v>
@@ -2388,7 +2395,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="15">
         <v>5</v>
@@ -2507,10 +2514,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -2529,10 +2536,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="15">
         <v>200</v>
@@ -2542,7 +2549,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J16" s="17"/>
     </row>
@@ -2571,10 +2578,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="15">
         <v>5</v>
@@ -2586,10 +2593,10 @@
       <c r="G18" s="17"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
@@ -2617,10 +2624,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="15">
         <v>10</v>
@@ -2630,10 +2637,10 @@
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
@@ -2641,10 +2648,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -2656,20 +2663,32 @@
         <v>0</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="15">
+        <v>16</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
       <c r="E22" s="16"/>
       <c r="F22" s="24"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
@@ -2724,7 +2743,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2800,7 +2819,7 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
@@ -2863,10 +2882,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12">
         <v>10</v>
@@ -2891,10 +2910,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="43">
         <v>2</v>
@@ -2913,7 +2932,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
@@ -2985,10 +3004,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="15">
         <v>5</v>
@@ -2998,10 +3017,10 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="12" customHeight="1">
@@ -3029,10 +3048,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15">
         <v>5</v>
@@ -3042,10 +3061,10 @@
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1">
@@ -3137,7 +3156,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3211,7 +3230,7 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
@@ -3275,7 +3294,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12">
         <v>10</v>
@@ -3301,10 +3320,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="43">
         <v>100</v>
@@ -3369,10 +3388,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="15">
         <v>5</v>
@@ -3382,10 +3401,10 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
@@ -3413,10 +3432,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15">
         <v>5</v>
@@ -3426,10 +3445,10 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
@@ -3520,7 +3539,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3594,7 +3613,7 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
@@ -3655,10 +3674,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12">
         <v>7</v>
@@ -3684,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>11</v>
@@ -3754,10 +3773,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="15">
         <v>5</v>
@@ -3767,10 +3786,10 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
@@ -3798,10 +3817,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15">
         <v>5</v>
@@ -3811,10 +3830,10 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
@@ -3979,7 +3998,7 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
@@ -4040,10 +4059,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
@@ -4055,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
@@ -4067,10 +4086,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="15">
         <v>100</v>
@@ -4135,10 +4154,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="15">
         <v>5</v>
@@ -4148,10 +4167,10 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
@@ -4179,10 +4198,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15">
         <v>5</v>
@@ -4192,10 +4211,10 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
